--- a/PrepareWork/用户画像标签计算.xlsx
+++ b/PrepareWork/用户画像标签计算.xlsx
@@ -7,25 +7,18 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="描述VIP玩家的特征" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
-  <si>
-    <t>标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>电子通讯设备的选择</t>
   </si>
   <si>
-    <t>物品偏好</t>
-  </si>
-  <si>
     <t>爱情需求</t>
   </si>
   <si>
@@ -38,33 +31,6 @@
     <t>回流</t>
   </si>
   <si>
-    <t>生命周期</t>
-  </si>
-  <si>
-    <t>计算标准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>难度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本身重要程度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所需数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>付费能力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,74 +47,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>描绘什么时候在线通常，也代表了玩家的游戏时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>炫耀需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>结义，交流除去副本的内容</t>
-  </si>
-  <si>
     <t>爱情，送礼物，示爱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要获取物品编号，从server_getitem里面得到玩家的物品需求，进一步进行各种分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>活跃度的价值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>价格敏感度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀人统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付费潜力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资深游戏玩家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>统计账号个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新副本，新角色，新商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回流程度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自注册以来的参与活动的次数，金额的大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>促销产品的购买与其他正常商品的比较</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单次充值的最大消费，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -185,31 +96,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>各种榜单，稀有装备，稀有装饰【土豪】，跨服创号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>社交需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>跨省的区域，有可能换号导致的原因。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资深游戏玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多账号拥有者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>求新需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最新电子通讯设备，经济实惠。是否需要获取每个商品的发布日期，获取每个用户的第一次新设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跨省的区域，有可能换号导致的原因。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么推测付费能力？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多账号拥有者</t>
+    <t>生命周期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -217,7 +124,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>概率值</t>
+    <t>结婚日志和相关物品道具购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源渠道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家的游戏时间习惯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同品牌手机发布历史，对应价格和玩家使用设备的登录记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数计算方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营活动的历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀人统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -225,19 +164,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP地址定位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渠道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来源渠道</t>
+    <t>新副本，新角色，游戏新玩法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需数据【空白为现有日志可以找到】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大R，中R，小R，根据付费金额来衡量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -245,7 +184,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大R，中R，小R，根据付费金额来衡量吧</t>
+    <t>自注册以来的参与活动的次数，金额的多少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>促销期间的购买情况与平常的购买情况对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品偏好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【成长类、装饰类、稀有等】需要获取物品编号，从server_getitem里面得到玩家的物品需求，进一步进行各种分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间接反映玩家的消费水平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间接反映玩家媒体渠道的偏好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品ID和名称的对照表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结义，交流内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各类榜单，稀有装备，稀有装饰，稀有装饰，新服创号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -289,12 +276,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -311,20 +304,75 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="黑体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -335,6 +383,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:D22" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <tableColumns count="4">
+    <tableColumn id="1" name="标签" dataDxfId="5"/>
+    <tableColumn id="2" name="系数计算方法" dataDxfId="4"/>
+    <tableColumn id="3" name="所需数据【空白为现有日志可以找到】" dataDxfId="3"/>
+    <tableColumn id="4" name="备注" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -624,371 +684,262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="123.625" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="54.375" customWidth="1"/>
+    <col min="4" max="4" width="123.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>